--- a/Documents/YeuCauLan1/PhanCong.xlsx
+++ b/Documents/YeuCauLan1/PhanCong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -282,29 +282,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +309,24 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -338,6 +338,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,24 +649,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>1542276</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="1">
         <v>1542255</v>
       </c>
@@ -673,10 +676,10 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1">
         <v>1542205</v>
       </c>
@@ -686,10 +689,10 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1">
         <v>1542227</v>
       </c>
@@ -699,20 +702,20 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
         <v>1542287</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -731,227 +734,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="9.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" style="10" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" style="4" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="5">
         <v>1542205</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="5">
         <v>1542227</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>1542255</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="5">
         <v>1542276</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="6">
         <v>1542287</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="13"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Documents/YeuCauLan1/PhanCong.xlsx
+++ b/Documents/YeuCauLan1/PhanCong.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Wind</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -734,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -940,7 +943,9 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
         <v>25</v>
@@ -952,7 +957,9 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
         <v>25</v>

--- a/Documents/YeuCauLan1/PhanCong.xlsx
+++ b/Documents/YeuCauLan1/PhanCong.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Wind</t>
   </si>
@@ -80,9 +80,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>5.Lược đồ DB</t>
-  </si>
-  <si>
     <t>Đặc tả table</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>5. Lược đồ DB</t>
+  </si>
+  <si>
+    <t>6. Viết báo cáo</t>
   </si>
 </sst>
 </file>
@@ -735,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H17"/>
+  <dimension ref="C3:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -757,7 +760,7 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>1542205</v>
@@ -782,7 +785,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -804,10 +807,10 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -818,10 +821,10 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -840,19 +843,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.35">
@@ -860,19 +863,19 @@
         <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.35">
@@ -892,10 +895,10 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -906,10 +909,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -918,18 +921,20 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C15" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -939,31 +944,43 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="H17" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
